--- a/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
+++ b/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhbo9\Documents\PROJECTS\BartoszOStrowski\PCB\STM32H743VGT6\KSS\Project Outputs for KSS\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5747B63A-8771-4191-A81C-62C4AF9F7813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2C47E8-5C1B-41DB-9C60-182A49ACE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="5970" windowWidth="28800" windowHeight="11775" xr2:uid="{C945A9DD-13AA-4BE9-B02E-28CC404A73B1}"/>
+    <workbookView xWindow="6390" yWindow="9225" windowWidth="28800" windowHeight="11775" xr2:uid="{B47CF881-6FEB-4CD9-AC92-574BBE235BF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-KSS" sheetId="1" r:id="rId1"/>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2F871B-66DB-4311-A05C-9E7F38A761A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE90536-8963-4E53-AB0B-BD18D034DE4E}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
+++ b/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhbo9\Documents\PROJECTS\BartoszOStrowski\PCB\STM32H743VGT6\KSS\Project Outputs for KSS\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://robotecai-my.sharepoint.com/personal/bartosz_ostrowski_robotec_ai/Documents/Dokumenty/GitHub/BartoszOstrowski/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A2C47E8-5C1B-41DB-9C60-182A49ACE453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD8048C-9B42-4591-B6C2-A3B6625CC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="9225" windowWidth="28800" windowHeight="11775" xr2:uid="{B47CF881-6FEB-4CD9-AC92-574BBE235BF6}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{0E9B769F-4103-421B-A055-EE514112B17C}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-KSS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-KSS'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -511,7 +513,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE90536-8963-4E53-AB0B-BD18D034DE4E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6849DC3-8146-46DA-BB7C-A5340EFEA681}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
+++ b/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://robotecai-my.sharepoint.com/personal/bartosz_ostrowski_robotec_ai/Documents/Dokumenty/GitHub/BartoszOstrowski/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhbo9\Documents\PROJECTS\BartoszOStrowski\PCB\STM32H743VGT6\KSS\Project Outputs for KSS\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DFD8048C-9B42-4591-B6C2-A3B6625CC95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE382BF-CD71-4275-98EA-5CB4485976AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{0E9B769F-4103-421B-A055-EE514112B17C}"/>
+    <workbookView xWindow="-28800" yWindow="7335" windowWidth="28800" windowHeight="11775" xr2:uid="{E4F589A2-DBB1-4BD1-9E20-263D47094673}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-KSS" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Bill of Materials-KSS'!$1:$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,9 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -513,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6849DC3-8146-46DA-BB7C-A5340EFEA681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8D42AF-9FD2-4617-B49E-41DC772A9E49}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
+++ b/PCB/STM32H743VGT6/KSS/Project Outputs for KSS/BOM/Bill of Materials-KSS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhbo9\Documents\PROJECTS\BartoszOStrowski\PCB\STM32H743VGT6\KSS\Project Outputs for KSS\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEE382BF-CD71-4275-98EA-5CB4485976AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1554797-9CC9-44B7-8E00-0C42EB770DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="7335" windowWidth="28800" windowHeight="11775" xr2:uid="{E4F589A2-DBB1-4BD1-9E20-263D47094673}"/>
+    <workbookView xWindow="-28800" yWindow="7410" windowWidth="28800" windowHeight="11775" xr2:uid="{E907C8BA-CEF3-48C4-A624-68D5A22293C2}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-KSS" sheetId="1" r:id="rId1"/>
@@ -56,69 +56,69 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>WH</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9</t>
+  </si>
+  <si>
+    <t>LED_1206</t>
+  </si>
+  <si>
+    <t>Diode LED</t>
+  </si>
+  <si>
+    <t>RED</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>YELLOW</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>GREEN</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>Resistor</t>
+  </si>
+  <si>
+    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12</t>
+  </si>
+  <si>
+    <t>RES 1206</t>
+  </si>
+  <si>
+    <t>Pushbutton</t>
+  </si>
+  <si>
+    <t>SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9</t>
+  </si>
+  <si>
+    <t>Key switch Outemu</t>
+  </si>
+  <si>
+    <t>GoldPin_F_20x2</t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>GOLDPIN_F_20x2</t>
+  </si>
+  <si>
     <t>?</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>D1, D2, D3, D4, D5, D6, D7, D8, D9</t>
-  </si>
-  <si>
-    <t>LED_1206</t>
-  </si>
-  <si>
-    <t>Diode LED</t>
-  </si>
-  <si>
-    <t>RED</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>LED_1206_DLC</t>
-  </si>
-  <si>
-    <t>YELLOW</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>GREEN</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>Resistor</t>
-  </si>
-  <si>
-    <t>R1, R2, R3, R4, R5, R6, R7, R8, R9, R10, R11, R12</t>
-  </si>
-  <si>
-    <t>RES 1206</t>
-  </si>
-  <si>
-    <t>Pushbutton</t>
-  </si>
-  <si>
-    <t>SW1, SW2, SW3, SW4, SW5, SW6, SW7, SW8, SW9</t>
-  </si>
-  <si>
-    <t>Key switch Outemu</t>
-  </si>
-  <si>
-    <t>GoldPin_F_20x2</t>
-  </si>
-  <si>
-    <t>X1</t>
-  </si>
-  <si>
-    <t>GOLDPIN_F_20x2</t>
-  </si>
-  <si>
     <t>X2, X3, X4, X5</t>
   </si>
   <si>
@@ -134,7 +134,7 @@
     <t>X6</t>
   </si>
   <si>
-    <t>USB_MICRO_B_MX-105017-0001</t>
+    <t>USB_MICRO_B_940 KEYSTONE</t>
   </si>
 </sst>
 </file>
@@ -511,7 +511,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F8D42AF-9FD2-4617-B49E-41DC772A9E49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63E3E719-B21F-4F03-8649-1708610F12C6}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -572,7 +572,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -583,16 +583,16 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -603,16 +603,16 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -623,19 +623,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1">
         <v>12</v>
@@ -643,19 +643,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1">
         <v>9</v>
@@ -663,19 +663,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -683,7 +683,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -723,6 +723,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>